--- a/public/Household_Rota.xlsx
+++ b/public/Household_Rota.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaiSa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaiSa\household-rota\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CBE598-FA6E-42AC-AC1C-1B83C121EC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CDAC22-F543-4928-95A2-B72EAFC88AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4817A9B5-BBA7-4FF5-882C-74CCE08D6E16}"/>
+    <workbookView xWindow="-4800" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{4817A9B5-BBA7-4FF5-882C-74CCE08D6E16}"/>
   </bookViews>
   <sheets>
     <sheet name="Household_Rota" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="16">
   <si>
     <t>Week Starting</t>
-  </si>
-  <si>
-    <t>Bathtub + Showerhead</t>
   </si>
   <si>
     <t>Broom the House</t>
@@ -58,16 +55,19 @@
     <t xml:space="preserve">Fridge </t>
   </si>
   <si>
-    <t>Sink</t>
+    <t>Bin</t>
   </si>
   <si>
-    <t>Big Toilet + Sink</t>
+    <t>Big Toilet</t>
   </si>
   <si>
-    <t>Small Toilet + Sink</t>
+    <t>Small Toilet</t>
   </si>
   <si>
-    <t>Bin</t>
+    <t>Bathtub</t>
+  </si>
+  <si>
+    <t>Kitchen Sink</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,18 +388,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -563,11 +551,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -943,21 +930,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FC9517-1020-4A30-885B-CE4B6DDA7FA6}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -969,1144 +957,1149 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45556</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
+        <v>45549</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45563</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>45556</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
       </c>
       <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45570</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>45563</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45577</v>
+        <v>45570</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45584</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
+        <v>45577</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45591</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>45584</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45598</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
+        <v>45591</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45605</v>
+        <v>45598</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45612</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
+        <v>45605</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45619</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
+        <v>45612</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45626</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
+        <v>45619</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
       </c>
       <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45633</v>
+        <v>45626</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45640</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
+        <v>45633</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45647</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
+        <v>45640</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5</v>
       </c>
       <c r="L15" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45654</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
+        <v>45647</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45661</v>
+        <v>45654</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45668</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
+        <v>45661</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45675</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
+        <v>45668</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45682</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
+        <v>45675</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45689</v>
+        <v>45682</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
       </c>
       <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45696</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
+        <v>45689</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45703</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
+        <v>45696</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
         <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45710</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
+        <v>45703</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45717</v>
+        <v>45710</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45724</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
+        <v>45717</v>
       </c>
       <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45731</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
+        <v>45724</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" t="s">
+        <v>5</v>
       </c>
       <c r="L27" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45738</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
+        <v>45731</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45745</v>
+        <v>45738</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
       </c>
       <c r="L29" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45752</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
+        <v>45745</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45759</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
+        <v>45752</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
         <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45766</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
+        <v>45759</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5</v>
       </c>
       <c r="L32" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>45773</v>
+        <v>45766</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>45780</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" t="s">
-        <v>6</v>
+        <v>45773</v>
       </c>
       <c r="H34" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>45787</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
+        <v>45780</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
         <v>7</v>
       </c>
       <c r="L35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>45794</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
+        <v>45787</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
       </c>
       <c r="L36" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>45801</v>
+        <v>45794</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
       </c>
       <c r="L37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>7</v>
+        <v>45801</v>
       </c>
       <c r="H38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L38" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>45815</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
+        <v>45808</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" t="s">
+        <v>5</v>
       </c>
       <c r="L39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>45822</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
+        <v>45815</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>7</v>
       </c>
       <c r="L40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>45829</v>
+        <v>45822</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
       </c>
       <c r="L41" t="s">
-        <v>6</v>
-      </c>
-      <c r="M41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>45836</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" t="s">
-        <v>8</v>
+        <v>45829</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L42" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M42" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>45843</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>45836</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
       </c>
       <c r="H43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" t="s">
         <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>45850</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
+        <v>45843</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>5</v>
       </c>
       <c r="L44" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>45857</v>
+        <v>45850</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>6</v>
       </c>
       <c r="L45" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45864</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" t="s">
-        <v>6</v>
+        <v>45857</v>
       </c>
       <c r="H46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45871</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
+        <v>45864</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
         <v>7</v>
       </c>
       <c r="L47" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>45878</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
+        <v>45871</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>6</v>
       </c>
       <c r="L48" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>45885</v>
-      </c>
-      <c r="G49" t="s">
+        <v>45878</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
       </c>
       <c r="L49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>45892</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
+        <v>45885</v>
       </c>
       <c r="G50" t="s">
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L50" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>45899</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
+        <v>45892</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" t="s">
+        <v>5</v>
       </c>
       <c r="L51" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>45906</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
+        <v>45899</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
       </c>
       <c r="H52" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>7</v>
       </c>
       <c r="L52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
+        <v>45906</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>45913</v>
       </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" t="s">
-        <v>6</v>
-      </c>
-      <c r="M53" t="s">
-        <v>7</v>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/Household_Rota.xlsx
+++ b/public/Household_Rota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaiSa\household-rota\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CDAC22-F543-4928-95A2-B72EAFC88AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF12FD-09C7-4917-A51E-623935BEEC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{4817A9B5-BBA7-4FF5-882C-74CCE08D6E16}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="16">
   <si>
     <t>Week Starting</t>
   </si>
@@ -551,10 +551,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -933,7 +932,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,46 +956,76 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45549</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
